--- a/ExcelFiles/RolesSkill.xlsx
+++ b/ExcelFiles/RolesSkill.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>int</t>
   </si>
@@ -61,7 +61,7 @@
     <t>nextSkillId</t>
   </si>
   <si>
-    <t>effectName</t>
+    <t>effectList</t>
   </si>
   <si>
     <t>audioName</t>
@@ -70,344 +70,163 @@
     <t>深红普攻1式</t>
   </si>
   <si>
-    <t>normalAttack_1</t>
+    <t>NormalAttack_1</t>
   </si>
   <si>
     <t>{
     "1":{
         "stageType":1,
-        "frameSum":9,
-        "moveDirection":null
+        "frame":12,
+        "skillMoveSpeed":null
     },
     "2":{
         "stageType":2,
-        "frameSum":5,
+        "frame":21,
         "attackType":1,
         "attackValue":2.5,
-        "shockScreen":1,
+        "shockScreen":0,
         "shockScreenTiming":1,
-        "moveDirection":"0.5:0"
+        "skillMoveSpeed":"1:0",
+        "effectPrefab":null
     },
     "3":{
         "stageType":3,
-        "frameSum":5,
-        "moveDirection":"0.5:0"
+        "frame":24,
+        "skillMoveSpeed":"1:0"
+    },
+    "4":{
+        "stageType":4,
+        "frame":37,
+        "skillMoveSpeed":null
     }
 }</t>
   </si>
   <si>
-    <t>Alpha_Slash</t>
+    <t>{
+    "4":{
+        "stageType":4,
+        "frame":37,
+        "skillMoveSpeed":null
+    }
+}</t>
+  </si>
+  <si>
+    <t>normalAttack_1</t>
   </si>
   <si>
     <t>深红普攻2式</t>
   </si>
   <si>
-    <t>normalAttack_2</t>
+    <t>NormalAttack_2</t>
   </si>
   <si>
     <t>{
     "1":{
         "stageType":1,
-        "frameSum":9,
-        "moveDirection":null
+        "frame":12,
+        "skillMoveSpeed":null
     },
     "2":{
         "stageType":2,
-        "frameSum":6,
+        "frame":22,
         "attackType":1,
         "attackValue":2.5,
-        "shockScreen":1,
+        "shockScreen":0,
         "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
+        "skillMoveSpeed":"1:0",
+        "effectPrefab":null
     },
     "3":{
         "stageType":3,
-        "frameSum":5,
-        "moveDirection":"0.4:0"
+        "frame":25,
+        "skillMoveSpeed":"1:0"
+    },
+    "4":{
+        "stageType":4,
+        "frame":38,
+        "skillMoveSpeed":null
     }
 }</t>
   </si>
   <si>
+    <t>{
+    "1":{
+        "prefabName":"alpha_NormalAttackSlash",
+        "animationName":"NormalAttack_2",
+        "delayDisappearTime":0,
+        "type":1
+    }
+}</t>
+  </si>
+  <si>
     <t>深红普攻3式</t>
   </si>
   <si>
+    <t>NormalAttack_3</t>
+  </si>
+  <si>
+    <t>{
+    "1":{
+        "prefabName":"alpha_NormalAttackSlash",
+        "animationName":"NormalAttack_3",
+        "delayDisappearTime":0,
+        "type":1
+    }
+}</t>
+  </si>
+  <si>
     <t>normalAttack_3</t>
+  </si>
+  <si>
+    <t>核心剑气1式，左上到右下</t>
+  </si>
+  <si>
+    <t>CoreAttack_1</t>
   </si>
   <si>
     <t>{
     "1":{
         "stageType":1,
-        "frameSum":9,
-        "moveDirection":null
+        "frame":12,
+        "skillMoveSpeed":null
     },
     "2":{
         "stageType":2,
-        "frameSum":6,
-        "attackType":1,
+        "frame":22,
+        "attackType":2,
         "attackValue":2.5,
-        "shockScreen":1,
+        "shockScreen":0,
         "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
+        "skillMoveSpeed":"1:0",
+        "effectPrefab":"hexinjianqi"
     },
     "3":{
         "stageType":3,
-        "frameSum":4,
-        "moveDirection":"0.4:0"
+        "frame":25,
+        "skillMoveSpeed":"1:0"
+    },
+    "4":{
+        "stageType":4,
+        "frame":38,
+        "skillMoveSpeed":null
     }
 }</t>
   </si>
   <si>
-    <t>深红普攻4式</t>
-  </si>
-  <si>
-    <t>normalAttack_4</t>
-  </si>
-  <si>
     <t>{
     "1":{
-        "stageType":2,
-        "frameSum":9,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.2:0"
+        "prefabName":"alpha_NormalAttackSlash",
+        "animationName":"NormalAttack_3",
+        "delayDisappearTime":0,
+        "type":1
     },
     "2":{
-        "stageType":3,
-        "frameSum":3,
-        "moveDirection":"0.2:0"
+        "prefabName":"alpha_hexinjianqi",
+        "animationName":"1",
+        "delayDisappearTime":0,
+        "type":2
     }
 }</t>
-  </si>
-  <si>
-    <t>normalAttack_6</t>
-  </si>
-  <si>
-    <t>深红普攻5式</t>
-  </si>
-  <si>
-    <t>normalAttack_5</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":8,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":4,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":2,
-        "shockScreenTiming":1,
-        "moveDirection":"0.3:0"
-    },
-    "3":{
-        "stageType":3,
-        "frameSum":6,
-        "moveDirection":"0.3:0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>Alpha_Penetrate</t>
-  </si>
-  <si>
-    <t>深红普攻6式</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":12,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":9,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":2,
-        "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
-    },
-    "3":{
-        "stageType":3,
-        "frameSum":3,
-        "moveDirection":"0.4:0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>深红普攻7式</t>
-  </si>
-  <si>
-    <t>normalAttack_7</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":4,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":6,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
-    },
-    "3":{
-        "stageType":3,
-        "frameSum":2,
-        "moveDirection":"0.4:0"
-    },
-    "4":{
-        "stageType":2,
-        "frameSum":5,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
-    },
-    "5":{
-        "stageType":3,
-        "frameSum":8,
-        "moveDirection":"0.4:0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>Alpha_SlashDouble</t>
-  </si>
-  <si>
-    <t>深红普攻7式重复1次</t>
-  </si>
-  <si>
-    <t>normalAttack_7_repeat</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":2,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":6,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
-    },
-    "3":{
-        "stageType":3,
-        "frameSum":2,
-        "moveDirection":"0.4:0"
-    },
-    "4":{
-        "stageType":2,
-        "frameSum":5,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.4:0"
-    },
-    "5":{
-        "stageType":3,
-        "frameSum":8,
-        "moveDirection":"0.4:0"
-    }
-}</t>
-  </si>
-  <si>
-    <t>深红普攻8式</t>
-  </si>
-  <si>
-    <t>normalAttack_8</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":14,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":5,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.8:0"
-    },
-    "3":{
-        "stageType":2,
-        "frameSum":5,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.8:0"
-    },
-    "4":{
-        "stageType":2,
-        "frameSum":4,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0.8:0"
-    },
-    "5":{
-        "stageType":3,
-        "frameSum":4,
-        "moveDirection":null
-    }
-}</t>
-  </si>
-  <si>
-    <t>深红普攻9式</t>
-  </si>
-  <si>
-    <t>normalAttack_9</t>
-  </si>
-  <si>
-    <t>{
-    "1":{
-        "stageType":1,
-        "frameSum":9,
-        "moveDirection":null
-    },
-    "2":{
-        "stageType":2,
-        "frameSum":9,
-        "attackType":1,
-        "attackValue":2.5,
-        "shockScreen":1,
-        "shockScreenTiming":1,
-        "moveDirection":"0:0"
-    },
-    "3":{
-        "stageType":3,
-        "frameSum":11,
-        "moveDirection":null
-    }
-}</t>
-  </si>
-  <si>
-    <t>Alpha_SlashCircle</t>
   </si>
 </sst>
 </file>
@@ -1023,9 +842,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1341,19 +1163,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="18.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="47.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="29.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="57.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1380,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -1437,11 +1259,11 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:9">
@@ -1455,22 +1277,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1" spans="1:9">
@@ -1484,225 +1306,51 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:9">
       <c r="A6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1" spans="1:9">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1" spans="1:9">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="1:9">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:9">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:9">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1" spans="1:9">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
